--- a/Excel/Excel Tutorials Part 1.xlsx
+++ b/Excel/Excel Tutorials Part 1.xlsx
@@ -5,22 +5,47 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\DATA COMPLETE SCIENCE MASTERS\EXCEL TUTORIALS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11775" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11775" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Excel Formulas" sheetId="1" r:id="rId1"/>
     <sheet name="Excel Round Off Numbers" sheetId="2" r:id="rId2"/>
     <sheet name="AutoFill" sheetId="3" r:id="rId3"/>
+    <sheet name="Excel" sheetId="4" r:id="rId4"/>
+    <sheet name="DATA" sheetId="12" r:id="rId5"/>
+    <sheet name="VLOOKUP" sheetId="9" r:id="rId6"/>
+    <sheet name="Sheet8" sheetId="11" r:id="rId7"/>
+    <sheet name="PIVOT" sheetId="10" r:id="rId8"/>
+    <sheet name="Charts" sheetId="8" r:id="rId9"/>
+    <sheet name="Split" sheetId="7" r:id="rId10"/>
+    <sheet name="Name" sheetId="5" r:id="rId11"/>
+    <sheet name="Drop down" sheetId="6" r:id="rId12"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Excel!$A$3:$I$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Excel Formulas'!$A$4:$K$9</definedName>
+    <definedName name="Slicer_Gender">#N/A</definedName>
+    <definedName name="Slicer_House">#N/A</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
+  <pivotCaches>
+    <pivotCache cacheId="12" r:id="rId13"/>
+    <pivotCache cacheId="11" r:id="rId14"/>
+  </pivotCaches>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{46BE6895-7355-4a93-B00E-2C351335B9C9}">
+      <x15:slicerCaches xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <x14:slicerCache r:id="rId15"/>
+        <x14:slicerCache r:id="rId16"/>
+      </x15:slicerCaches>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -29,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="117">
   <si>
     <t>S No</t>
   </si>
@@ -221,6 +246,165 @@
   </si>
   <si>
     <t>Sun</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Class </t>
+  </si>
+  <si>
+    <t>House</t>
+  </si>
+  <si>
+    <t>Unit Test1</t>
+  </si>
+  <si>
+    <t>Unit Test2</t>
+  </si>
+  <si>
+    <t>Final Test</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Abhimanyu</t>
+  </si>
+  <si>
+    <t>Arjun</t>
+  </si>
+  <si>
+    <t>Champa</t>
+  </si>
+  <si>
+    <t>Gopal</t>
+  </si>
+  <si>
+    <t>Gopi</t>
+  </si>
+  <si>
+    <t>Hari</t>
+  </si>
+  <si>
+    <t>Indu</t>
+  </si>
+  <si>
+    <t>Keshav</t>
+  </si>
+  <si>
+    <t>Lalita</t>
+  </si>
+  <si>
+    <t>Madhav</t>
+  </si>
+  <si>
+    <t>Sudevi</t>
+  </si>
+  <si>
+    <t>Visakha</t>
+  </si>
+  <si>
+    <t>Vrinda</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Bhoomi</t>
+  </si>
+  <si>
+    <t>Vayu</t>
+  </si>
+  <si>
+    <t>Jal</t>
+  </si>
+  <si>
+    <t>Agni</t>
+  </si>
+  <si>
+    <t>Abhimanyu@mail.com</t>
+  </si>
+  <si>
+    <t>Arjun@mail.com</t>
+  </si>
+  <si>
+    <t>Gopal@mail.com</t>
+  </si>
+  <si>
+    <t>Hari@mail.com</t>
+  </si>
+  <si>
+    <t>Keshav@mail.com</t>
+  </si>
+  <si>
+    <t>Madhav@mail.com</t>
+  </si>
+  <si>
+    <t>RNM@mail.com</t>
+  </si>
+  <si>
+    <t>Champa@mail.com</t>
+  </si>
+  <si>
+    <t>Gopi@mail.com</t>
+  </si>
+  <si>
+    <t>Indu@mail.com</t>
+  </si>
+  <si>
+    <t>Lalita@mail.com</t>
+  </si>
+  <si>
+    <t>Sudevi@mail.com</t>
+  </si>
+  <si>
+    <t>Visakha@mail.com</t>
+  </si>
+  <si>
+    <t>Vrinda@mail.com</t>
+  </si>
+  <si>
+    <t>Grade</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>mail.com</t>
+  </si>
+  <si>
+    <t>Sum of Final Test</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Column Labels</t>
+  </si>
+  <si>
+    <t>(All)</t>
   </si>
 </sst>
 </file>
@@ -228,9 +412,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -260,8 +444,63 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -280,8 +519,31 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -304,12 +566,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -321,16 +622,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -340,12 +638,40 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -355,6 +681,43 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -367,6 +730,1900 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.16015179352580927"/>
+          <c:y val="0.1902314814814815"/>
+          <c:w val="0.83129396325459315"/>
+          <c:h val="0.50087160979877521"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charts!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Final Test</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charts!$A$2:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>Abhimanyu</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Arjun</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Champa</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Gopal</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Gopi</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Hari</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Indu</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Keshav</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Lalita</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Madhav</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>RNM</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Sudevi</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Visakha</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Vrinda</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charts!$B$2:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>98</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-28B3-4099-B5B9-D151C7935272}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="432640536"/>
+        <c:axId val="432640864"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="432640536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="432640864"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="432640864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="432640536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2114550</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Gender"/>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Gender"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9658350" y="238125"/>
+              <a:ext cx="1828800" cy="1095375"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-IN" sz="1100"/>
+                <a:t>This shape represents a table slicer. Table slicers are supported in Excel or later.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2007 or earlier, the slicer can't be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2143125</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="House"/>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="House"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9686925" y="1543051"/>
+              <a:ext cx="1828800" cy="1714500"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-IN" sz="1100"/>
+                <a:t>This shape represents a table slicer. Table slicers are supported in Excel or later.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2007 or earlier, the slicer can't be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>457201</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>371476</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1200151" y="0"/>
+          <a:ext cx="5086350" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100"/>
+            <a:t>Exce                                       </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Excel</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> Advance Concepts</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>148828</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>66080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>470297</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>142280</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="DELL" refreshedDate="45011.816916898148" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="14">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:H15" sheet="PIVOT"/>
+  </cacheSource>
+  <cacheFields count="8">
+    <cacheField name="Name" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Gender" numFmtId="0">
+      <sharedItems count="2">
+        <s v="M"/>
+        <s v="F"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Age" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="11" maxValue="17"/>
+    </cacheField>
+    <cacheField name="Class " numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="5" maxValue="10"/>
+    </cacheField>
+    <cacheField name="House" numFmtId="0">
+      <sharedItems count="4">
+        <s v="Bhoomi"/>
+        <s v="Vayu"/>
+        <s v="Jal"/>
+        <s v="Agni"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Unit Test1" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="70" maxValue="91"/>
+    </cacheField>
+    <cacheField name="Unit Test2" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="75" maxValue="96"/>
+    </cacheField>
+    <cacheField name="Final Test" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="77" maxValue="99"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="DELL" refreshedDate="45011.819755092591" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="14">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:H15" sheet="VLOOKUP"/>
+  </cacheSource>
+  <cacheFields count="8">
+    <cacheField name="Name" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Gender" numFmtId="0">
+      <sharedItems count="2">
+        <s v="M"/>
+        <s v="F"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Age" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="11" maxValue="17"/>
+    </cacheField>
+    <cacheField name="Class " numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="5" maxValue="10"/>
+    </cacheField>
+    <cacheField name="House" numFmtId="0">
+      <sharedItems count="4">
+        <s v="Bhoomi"/>
+        <s v="Vayu"/>
+        <s v="Jal"/>
+        <s v="Agni"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Unit Test1" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="70" maxValue="91" count="9">
+        <n v="84"/>
+        <n v="82"/>
+        <n v="81"/>
+        <n v="70"/>
+        <n v="88"/>
+        <n v="90"/>
+        <n v="87"/>
+        <n v="86"/>
+        <n v="91"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Unit Test2" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="75" maxValue="96"/>
+    </cacheField>
+    <cacheField name="Final Test" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="77" maxValue="99"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="14">
+  <r>
+    <s v="Abhimanyu"/>
+    <x v="0"/>
+    <n v="16"/>
+    <n v="10"/>
+    <x v="0"/>
+    <n v="84"/>
+    <n v="79"/>
+    <n v="99"/>
+  </r>
+  <r>
+    <s v="Arjun"/>
+    <x v="0"/>
+    <n v="11"/>
+    <n v="5"/>
+    <x v="1"/>
+    <n v="82"/>
+    <n v="83"/>
+    <n v="91"/>
+  </r>
+  <r>
+    <s v="Champa"/>
+    <x v="1"/>
+    <n v="15"/>
+    <n v="8"/>
+    <x v="2"/>
+    <n v="81"/>
+    <n v="78"/>
+    <n v="88"/>
+  </r>
+  <r>
+    <s v="Gopal"/>
+    <x v="0"/>
+    <n v="14"/>
+    <n v="8"/>
+    <x v="0"/>
+    <n v="70"/>
+    <n v="75"/>
+    <n v="79"/>
+  </r>
+  <r>
+    <s v="Gopi"/>
+    <x v="1"/>
+    <n v="16"/>
+    <n v="10"/>
+    <x v="3"/>
+    <n v="88"/>
+    <n v="92"/>
+    <n v="96"/>
+  </r>
+  <r>
+    <s v="Hari"/>
+    <x v="0"/>
+    <n v="16"/>
+    <n v="10"/>
+    <x v="0"/>
+    <n v="82"/>
+    <n v="81"/>
+    <n v="80"/>
+  </r>
+  <r>
+    <s v="Indu"/>
+    <x v="1"/>
+    <n v="14"/>
+    <n v="8"/>
+    <x v="1"/>
+    <n v="90"/>
+    <n v="86"/>
+    <n v="89"/>
+  </r>
+  <r>
+    <s v="Keshav"/>
+    <x v="0"/>
+    <n v="15"/>
+    <n v="9"/>
+    <x v="3"/>
+    <n v="87"/>
+    <n v="89"/>
+    <n v="96"/>
+  </r>
+  <r>
+    <s v="Lalita"/>
+    <x v="1"/>
+    <n v="17"/>
+    <n v="10"/>
+    <x v="1"/>
+    <n v="70"/>
+    <n v="90"/>
+    <n v="92"/>
+  </r>
+  <r>
+    <s v="Madhav"/>
+    <x v="0"/>
+    <n v="12"/>
+    <n v="7"/>
+    <x v="2"/>
+    <n v="86"/>
+    <n v="92"/>
+    <n v="89"/>
+  </r>
+  <r>
+    <s v="RNM"/>
+    <x v="0"/>
+    <n v="16"/>
+    <n v="10"/>
+    <x v="3"/>
+    <n v="86"/>
+    <n v="81"/>
+    <n v="77"/>
+  </r>
+  <r>
+    <s v="Sudevi"/>
+    <x v="1"/>
+    <n v="16"/>
+    <n v="10"/>
+    <x v="2"/>
+    <n v="81"/>
+    <n v="80"/>
+    <n v="87"/>
+  </r>
+  <r>
+    <s v="Visakha"/>
+    <x v="1"/>
+    <n v="16"/>
+    <n v="10"/>
+    <x v="0"/>
+    <n v="70"/>
+    <n v="87"/>
+    <n v="85"/>
+  </r>
+  <r>
+    <s v="Vrinda"/>
+    <x v="1"/>
+    <n v="14"/>
+    <n v="8"/>
+    <x v="3"/>
+    <n v="91"/>
+    <n v="96"/>
+    <n v="98"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="14">
+  <r>
+    <s v="Abhimanyu"/>
+    <x v="0"/>
+    <n v="16"/>
+    <n v="10"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="79"/>
+    <n v="99"/>
+  </r>
+  <r>
+    <s v="Arjun"/>
+    <x v="0"/>
+    <n v="11"/>
+    <n v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="83"/>
+    <n v="91"/>
+  </r>
+  <r>
+    <s v="Champa"/>
+    <x v="1"/>
+    <n v="15"/>
+    <n v="8"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="78"/>
+    <n v="88"/>
+  </r>
+  <r>
+    <s v="Gopal"/>
+    <x v="0"/>
+    <n v="14"/>
+    <n v="8"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="75"/>
+    <n v="79"/>
+  </r>
+  <r>
+    <s v="Gopi"/>
+    <x v="1"/>
+    <n v="16"/>
+    <n v="10"/>
+    <x v="3"/>
+    <x v="4"/>
+    <n v="92"/>
+    <n v="96"/>
+  </r>
+  <r>
+    <s v="Hari"/>
+    <x v="0"/>
+    <n v="16"/>
+    <n v="10"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="81"/>
+    <n v="80"/>
+  </r>
+  <r>
+    <s v="Indu"/>
+    <x v="1"/>
+    <n v="14"/>
+    <n v="8"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="86"/>
+    <n v="89"/>
+  </r>
+  <r>
+    <s v="Keshav"/>
+    <x v="0"/>
+    <n v="15"/>
+    <n v="9"/>
+    <x v="3"/>
+    <x v="6"/>
+    <n v="89"/>
+    <n v="96"/>
+  </r>
+  <r>
+    <s v="Lalita"/>
+    <x v="1"/>
+    <n v="17"/>
+    <n v="10"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="90"/>
+    <n v="92"/>
+  </r>
+  <r>
+    <s v="Madhav"/>
+    <x v="0"/>
+    <n v="12"/>
+    <n v="7"/>
+    <x v="2"/>
+    <x v="7"/>
+    <n v="92"/>
+    <n v="89"/>
+  </r>
+  <r>
+    <s v="RNM"/>
+    <x v="0"/>
+    <n v="16"/>
+    <n v="10"/>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="81"/>
+    <n v="77"/>
+  </r>
+  <r>
+    <s v="Sudevi"/>
+    <x v="1"/>
+    <n v="16"/>
+    <n v="10"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="80"/>
+    <n v="87"/>
+  </r>
+  <r>
+    <s v="Visakha"/>
+    <x v="1"/>
+    <n v="16"/>
+    <n v="10"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="87"/>
+    <n v="85"/>
+  </r>
+  <r>
+    <s v="Vrinda"/>
+    <x v="1"/>
+    <n v="14"/>
+    <n v="8"/>
+    <x v="3"/>
+    <x v="8"/>
+    <n v="96"/>
+    <n v="98"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:D9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="8">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="10">
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="5" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Final Test" fld="7" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="A3:C12" firstHeaderRow="1" firstDataRow="1" firstDataCol="2"/>
+  <pivotFields count="8">
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="2">
+        <item x="1"/>
+        <item x="0"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" sortType="descending" defaultSubtotal="0">
+      <items count="4">
+        <item x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="4"/>
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="9">
+    <i>
+      <x/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="1"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="3"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Final Test" fld="7" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_Gender" sourceName="Gender">
+  <extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
+      <x15:tableSlicerCache tableId="1" column="2"/>
+    </x:ext>
+  </extLst>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache2.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_House" sourceName="House">
+  <extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
+      <x15:tableSlicerCache tableId="1" column="5"/>
+    </x:ext>
+  </extLst>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <slicer name="Gender" cache="Slicer_Gender" caption="Gender" rowHeight="241300"/>
+  <slicer name="House" cache="Slicer_House" caption="House" rowHeight="241300"/>
+</slicers>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:I17" totalsRowShown="0" headerRowCellStyle="Normal" dataCellStyle="Normal">
+  <autoFilter ref="A3:I17"/>
+  <tableColumns count="9">
+    <tableColumn id="1" name="Name" dataCellStyle="Normal"/>
+    <tableColumn id="2" name="Gender" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="Age" dataCellStyle="Normal"/>
+    <tableColumn id="4" name="Class " dataCellStyle="Normal"/>
+    <tableColumn id="5" name="House" dataCellStyle="Normal"/>
+    <tableColumn id="6" name="Unit Test1" dataCellStyle="Normal"/>
+    <tableColumn id="7" name="Unit Test2" dataCellStyle="Normal"/>
+    <tableColumn id="8" name="Final Test" dataCellStyle="Normal"/>
+    <tableColumn id="9" name="email" dataCellStyle="Normal"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:A5" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A2:A5"/>
+  <tableColumns count="1">
+    <tableColumn id="1" name="Grade"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -651,45 +2908,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -917,11 +3174,11 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="10" t="s">
+      <c r="A12" s="8"/>
+      <c r="B12" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="10">
         <v>0.21</v>
       </c>
     </row>
@@ -954,10 +3211,399 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="27" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A3" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A4" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A5" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A6" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A7" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A8" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A9" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A10" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A11" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A12" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A13" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A14" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A15" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" t="s">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="Abhimanyu@mail.com"/>
+    <hyperlink ref="A3" r:id="rId2" display="Arjun@mail.com"/>
+    <hyperlink ref="A4" r:id="rId3" display="Champa@mail.com"/>
+    <hyperlink ref="A6" r:id="rId4" display="Gopi@mail.com"/>
+    <hyperlink ref="A8" r:id="rId5" display="Indu@mail.com"/>
+    <hyperlink ref="A10" r:id="rId6" display="Lalita@mail.com"/>
+    <hyperlink ref="A12" r:id="rId7" display="RNM@mail.com"/>
+    <hyperlink ref="A14" r:id="rId8" display="Visakha@mail.com"/>
+    <hyperlink ref="A5" r:id="rId9" display="Gopal@mail.com"/>
+    <hyperlink ref="A7" r:id="rId10" display="Hari@mail.com"/>
+    <hyperlink ref="A9" r:id="rId11" display="Keshav@mail.com"/>
+    <hyperlink ref="A11" r:id="rId12" display="Madhav@mail.com"/>
+    <hyperlink ref="A13" r:id="rId13" display="Sudevi@mail.com"/>
+    <hyperlink ref="A15" r:id="rId14" display="Vrinda@mail.com"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C6" r:id="rId4"/>
+    <hyperlink ref="C8" r:id="rId5"/>
+    <hyperlink ref="C10" r:id="rId6"/>
+    <hyperlink ref="C12" r:id="rId7"/>
+    <hyperlink ref="C14" r:id="rId8"/>
+    <hyperlink ref="C5" r:id="rId9"/>
+    <hyperlink ref="C7" r:id="rId10"/>
+    <hyperlink ref="C9" r:id="rId11"/>
+    <hyperlink ref="C11" r:id="rId12"/>
+    <hyperlink ref="C13" r:id="rId13"/>
+    <hyperlink ref="C15" r:id="rId14"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E7">
+      <formula1>$A$3:$A$5</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -1101,7 +3747,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D4:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
@@ -1324,4 +3970,1852 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:I31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H17" sqref="A3:H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.140625" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="51.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4">
+        <v>16</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4">
+        <v>84</v>
+      </c>
+      <c r="G4">
+        <v>79</v>
+      </c>
+      <c r="H4">
+        <v>99</v>
+      </c>
+      <c r="I4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F5">
+        <v>82</v>
+      </c>
+      <c r="G5">
+        <v>83</v>
+      </c>
+      <c r="H5">
+        <v>91</v>
+      </c>
+      <c r="I5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6">
+        <v>15</v>
+      </c>
+      <c r="D6">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F6">
+        <v>81</v>
+      </c>
+      <c r="G6">
+        <v>78</v>
+      </c>
+      <c r="H6">
+        <v>88</v>
+      </c>
+      <c r="I6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7">
+        <v>14</v>
+      </c>
+      <c r="D7">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F7">
+        <v>70</v>
+      </c>
+      <c r="G7">
+        <v>75</v>
+      </c>
+      <c r="H7">
+        <v>79</v>
+      </c>
+      <c r="I7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8">
+        <v>16</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F8">
+        <v>88</v>
+      </c>
+      <c r="G8">
+        <v>92</v>
+      </c>
+      <c r="H8">
+        <v>96</v>
+      </c>
+      <c r="I8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9">
+        <v>16</v>
+      </c>
+      <c r="D9">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F9">
+        <v>82</v>
+      </c>
+      <c r="G9">
+        <v>81</v>
+      </c>
+      <c r="H9">
+        <v>80</v>
+      </c>
+      <c r="I9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10">
+        <v>14</v>
+      </c>
+      <c r="D10">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>89</v>
+      </c>
+      <c r="F10">
+        <v>90</v>
+      </c>
+      <c r="G10">
+        <v>86</v>
+      </c>
+      <c r="H10">
+        <v>89</v>
+      </c>
+      <c r="I10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11">
+        <v>15</v>
+      </c>
+      <c r="D11">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F11">
+        <v>87</v>
+      </c>
+      <c r="G11">
+        <v>89</v>
+      </c>
+      <c r="H11">
+        <v>96</v>
+      </c>
+      <c r="I11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12">
+        <v>17</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>89</v>
+      </c>
+      <c r="F12">
+        <v>70</v>
+      </c>
+      <c r="G12">
+        <v>90</v>
+      </c>
+      <c r="H12">
+        <v>92</v>
+      </c>
+      <c r="I12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <v>7</v>
+      </c>
+      <c r="E13" t="s">
+        <v>90</v>
+      </c>
+      <c r="F13">
+        <v>86</v>
+      </c>
+      <c r="G13">
+        <v>92</v>
+      </c>
+      <c r="H13">
+        <v>89</v>
+      </c>
+      <c r="I13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14">
+        <v>16</v>
+      </c>
+      <c r="D14">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F14">
+        <v>86</v>
+      </c>
+      <c r="G14">
+        <v>81</v>
+      </c>
+      <c r="H14">
+        <v>77</v>
+      </c>
+      <c r="I14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15">
+        <v>16</v>
+      </c>
+      <c r="D15">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
+        <v>90</v>
+      </c>
+      <c r="F15">
+        <v>81</v>
+      </c>
+      <c r="G15">
+        <v>80</v>
+      </c>
+      <c r="H15">
+        <v>87</v>
+      </c>
+      <c r="I15" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16">
+        <v>16</v>
+      </c>
+      <c r="D16">
+        <v>10</v>
+      </c>
+      <c r="E16" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16">
+        <v>70</v>
+      </c>
+      <c r="G16">
+        <v>87</v>
+      </c>
+      <c r="H16">
+        <v>85</v>
+      </c>
+      <c r="I16" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17">
+        <v>14</v>
+      </c>
+      <c r="D17">
+        <v>8</v>
+      </c>
+      <c r="E17" t="s">
+        <v>91</v>
+      </c>
+      <c r="F17">
+        <v>91</v>
+      </c>
+      <c r="G17">
+        <v>96</v>
+      </c>
+      <c r="H17">
+        <v>98</v>
+      </c>
+      <c r="I17" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I31" s="22"/>
+    </row>
+  </sheetData>
+  <sortState ref="A4:I17">
+    <sortCondition ref="C4:C17"/>
+    <sortCondition descending="1" ref="H4:H17"/>
+  </sortState>
+  <hyperlinks>
+    <hyperlink ref="I4" r:id="rId1"/>
+    <hyperlink ref="I5" r:id="rId2"/>
+    <hyperlink ref="I6" r:id="rId3"/>
+    <hyperlink ref="I8" r:id="rId4"/>
+    <hyperlink ref="I10" r:id="rId5"/>
+    <hyperlink ref="I12" r:id="rId6"/>
+    <hyperlink ref="I14" r:id="rId7"/>
+    <hyperlink ref="I16" r:id="rId8"/>
+    <hyperlink ref="I7" r:id="rId9"/>
+    <hyperlink ref="I9" r:id="rId10"/>
+    <hyperlink ref="I11" r:id="rId11"/>
+    <hyperlink ref="I13" r:id="rId12"/>
+    <hyperlink ref="I15" r:id="rId13"/>
+    <hyperlink ref="I17" r:id="rId14"/>
+    <hyperlink ref="A3" location="Name!A1" display="Name"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId15"/>
+  <drawing r:id="rId16"/>
+  <tableParts count="1">
+    <tablePart r:id="rId17"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{3A4CF648-6AED-40f4-86FF-DC5316D8AED3}">
+      <x14:slicerList xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <x14:slicer r:id="rId18"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="30">
+        <v>194</v>
+      </c>
+      <c r="C5" s="30">
+        <v>173</v>
+      </c>
+      <c r="D5" s="30">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="30">
+        <v>85</v>
+      </c>
+      <c r="C6" s="30">
+        <v>258</v>
+      </c>
+      <c r="D6" s="30">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" s="30">
+        <v>175</v>
+      </c>
+      <c r="C7" s="30">
+        <v>89</v>
+      </c>
+      <c r="D7" s="30">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" s="30">
+        <v>181</v>
+      </c>
+      <c r="C8" s="30">
+        <v>91</v>
+      </c>
+      <c r="D8" s="30">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="B9" s="30">
+        <v>635</v>
+      </c>
+      <c r="C9" s="30">
+        <v>611</v>
+      </c>
+      <c r="D9" s="30">
+        <v>1246</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="L1" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="16">
+        <v>16</v>
+      </c>
+      <c r="D2" s="16">
+        <v>10</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" s="16">
+        <v>84</v>
+      </c>
+      <c r="G2" s="16">
+        <v>79</v>
+      </c>
+      <c r="H2" s="16">
+        <v>99</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="M2" s="16">
+        <v>98</v>
+      </c>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="18">
+        <v>11</v>
+      </c>
+      <c r="D3" s="18">
+        <v>5</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="F3" s="18">
+        <v>82</v>
+      </c>
+      <c r="G3" s="18">
+        <v>83</v>
+      </c>
+      <c r="H3" s="18">
+        <v>91</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="M3" s="16">
+        <v>96</v>
+      </c>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="16">
+        <v>15</v>
+      </c>
+      <c r="D4" s="16">
+        <v>8</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="F4" s="16">
+        <v>81</v>
+      </c>
+      <c r="G4" s="16">
+        <v>78</v>
+      </c>
+      <c r="H4" s="16">
+        <v>88</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="M4" s="16">
+        <v>89</v>
+      </c>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="18">
+        <v>14</v>
+      </c>
+      <c r="D5" s="18">
+        <v>8</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="F5" s="18">
+        <v>70</v>
+      </c>
+      <c r="G5" s="18">
+        <v>75</v>
+      </c>
+      <c r="H5" s="18">
+        <v>79</v>
+      </c>
+      <c r="L5" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="M5" s="16">
+        <v>80</v>
+      </c>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="16">
+        <v>16</v>
+      </c>
+      <c r="D6" s="16">
+        <v>10</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="F6" s="16">
+        <v>88</v>
+      </c>
+      <c r="G6" s="16">
+        <v>92</v>
+      </c>
+      <c r="H6" s="16">
+        <v>96</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="M6" s="16">
+        <v>99</v>
+      </c>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="16"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="18">
+        <v>16</v>
+      </c>
+      <c r="D7" s="18">
+        <v>10</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="F7" s="18">
+        <v>82</v>
+      </c>
+      <c r="G7" s="18">
+        <v>81</v>
+      </c>
+      <c r="H7" s="18">
+        <v>80</v>
+      </c>
+      <c r="L7" s="17"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="16">
+        <v>14</v>
+      </c>
+      <c r="D8" s="16">
+        <v>8</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="F8" s="16">
+        <v>90</v>
+      </c>
+      <c r="G8" s="16">
+        <v>86</v>
+      </c>
+      <c r="H8" s="16">
+        <v>89</v>
+      </c>
+      <c r="L8" s="15"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="16"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="18">
+        <v>15</v>
+      </c>
+      <c r="D9" s="18">
+        <v>9</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="F9" s="18">
+        <v>87</v>
+      </c>
+      <c r="G9" s="18">
+        <v>89</v>
+      </c>
+      <c r="H9" s="18">
+        <v>96</v>
+      </c>
+      <c r="L9" s="17"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="18"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="16">
+        <v>17</v>
+      </c>
+      <c r="D10" s="16">
+        <v>10</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="F10" s="16">
+        <v>70</v>
+      </c>
+      <c r="G10" s="16">
+        <v>90</v>
+      </c>
+      <c r="H10" s="16">
+        <v>92</v>
+      </c>
+      <c r="L10" s="15"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="16"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="18">
+        <v>12</v>
+      </c>
+      <c r="D11" s="18">
+        <v>7</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="F11" s="18">
+        <v>86</v>
+      </c>
+      <c r="G11" s="18">
+        <v>92</v>
+      </c>
+      <c r="H11" s="18">
+        <v>89</v>
+      </c>
+      <c r="L11" s="17"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="18"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="16">
+        <v>16</v>
+      </c>
+      <c r="D12" s="16">
+        <v>10</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="F12" s="16">
+        <v>86</v>
+      </c>
+      <c r="G12" s="16">
+        <v>81</v>
+      </c>
+      <c r="H12" s="16">
+        <v>77</v>
+      </c>
+      <c r="L12" s="15"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="16"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="18">
+        <v>16</v>
+      </c>
+      <c r="D13" s="18">
+        <v>10</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="F13" s="18">
+        <v>81</v>
+      </c>
+      <c r="G13" s="18">
+        <v>80</v>
+      </c>
+      <c r="H13" s="18">
+        <v>87</v>
+      </c>
+      <c r="L13" s="17"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="18"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="16">
+        <v>16</v>
+      </c>
+      <c r="D14" s="16">
+        <v>10</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="16">
+        <v>70</v>
+      </c>
+      <c r="G14" s="16">
+        <v>87</v>
+      </c>
+      <c r="H14" s="16">
+        <v>85</v>
+      </c>
+      <c r="L14" s="15"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="16"/>
+      <c r="S14" s="16"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="18">
+        <v>14</v>
+      </c>
+      <c r="D15" s="18">
+        <v>8</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="F15" s="18">
+        <v>91</v>
+      </c>
+      <c r="G15" s="18">
+        <v>96</v>
+      </c>
+      <c r="H15" s="18">
+        <v>98</v>
+      </c>
+      <c r="L15" s="17"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="18"/>
+      <c r="S15" s="18"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:A15">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Name!A1" display="Name"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:C12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="30">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="30">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="30">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="30">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="30">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="30">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="30">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="30">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C12" s="30">
+        <v>1246</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="16">
+        <v>16</v>
+      </c>
+      <c r="D2" s="16">
+        <v>10</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" s="16">
+        <v>84</v>
+      </c>
+      <c r="G2" s="16">
+        <v>79</v>
+      </c>
+      <c r="H2" s="16">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="18">
+        <v>11</v>
+      </c>
+      <c r="D3" s="18">
+        <v>5</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="F3" s="18">
+        <v>82</v>
+      </c>
+      <c r="G3" s="18">
+        <v>83</v>
+      </c>
+      <c r="H3" s="18">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="16">
+        <v>15</v>
+      </c>
+      <c r="D4" s="16">
+        <v>8</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="F4" s="16">
+        <v>81</v>
+      </c>
+      <c r="G4" s="16">
+        <v>78</v>
+      </c>
+      <c r="H4" s="16">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="18">
+        <v>14</v>
+      </c>
+      <c r="D5" s="18">
+        <v>8</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="F5" s="18">
+        <v>70</v>
+      </c>
+      <c r="G5" s="18">
+        <v>75</v>
+      </c>
+      <c r="H5" s="18">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="16">
+        <v>16</v>
+      </c>
+      <c r="D6" s="16">
+        <v>10</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="F6" s="16">
+        <v>88</v>
+      </c>
+      <c r="G6" s="16">
+        <v>92</v>
+      </c>
+      <c r="H6" s="16">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="18">
+        <v>16</v>
+      </c>
+      <c r="D7" s="18">
+        <v>10</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="F7" s="18">
+        <v>82</v>
+      </c>
+      <c r="G7" s="18">
+        <v>81</v>
+      </c>
+      <c r="H7" s="18">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="16">
+        <v>14</v>
+      </c>
+      <c r="D8" s="16">
+        <v>8</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="F8" s="16">
+        <v>90</v>
+      </c>
+      <c r="G8" s="16">
+        <v>86</v>
+      </c>
+      <c r="H8" s="16">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="18">
+        <v>15</v>
+      </c>
+      <c r="D9" s="18">
+        <v>9</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="F9" s="18">
+        <v>87</v>
+      </c>
+      <c r="G9" s="18">
+        <v>89</v>
+      </c>
+      <c r="H9" s="18">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="16">
+        <v>17</v>
+      </c>
+      <c r="D10" s="16">
+        <v>10</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="F10" s="16">
+        <v>70</v>
+      </c>
+      <c r="G10" s="16">
+        <v>90</v>
+      </c>
+      <c r="H10" s="16">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="18">
+        <v>12</v>
+      </c>
+      <c r="D11" s="18">
+        <v>7</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="F11" s="18">
+        <v>86</v>
+      </c>
+      <c r="G11" s="18">
+        <v>92</v>
+      </c>
+      <c r="H11" s="18">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="16">
+        <v>16</v>
+      </c>
+      <c r="D12" s="16">
+        <v>10</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="F12" s="16">
+        <v>86</v>
+      </c>
+      <c r="G12" s="16">
+        <v>81</v>
+      </c>
+      <c r="H12" s="16">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="18">
+        <v>16</v>
+      </c>
+      <c r="D13" s="18">
+        <v>10</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="F13" s="18">
+        <v>81</v>
+      </c>
+      <c r="G13" s="18">
+        <v>80</v>
+      </c>
+      <c r="H13" s="18">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="16">
+        <v>16</v>
+      </c>
+      <c r="D14" s="16">
+        <v>10</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="16">
+        <v>70</v>
+      </c>
+      <c r="G14" s="16">
+        <v>87</v>
+      </c>
+      <c r="H14" s="16">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="18">
+        <v>14</v>
+      </c>
+      <c r="D15" s="18">
+        <v>8</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="F15" s="18">
+        <v>91</v>
+      </c>
+      <c r="G15" s="18">
+        <v>96</v>
+      </c>
+      <c r="H15" s="18">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:A15">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Name!A1" display="Name"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="16">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="18">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="16">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="18">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="16">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="18">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="16">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="18">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="16">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" s="18">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="16">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" s="18">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" s="16">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" s="18">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Name!A1" display="Name"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>